--- a/Ateniola_Oluwatobi_60daysofUdacity_Updates.xlsx
+++ b/Ateniola_Oluwatobi_60daysofUdacity_Updates.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="181">
   <si>
     <t xml:space="preserve">Date </t>
   </si>
@@ -25,92 +25,77 @@
     <t xml:space="preserve">Links </t>
   </si>
   <si>
-    <t xml:space="preserve">
-Finished the project intro: Example Scenario Deep Learning
- in a Hospital in Lesson 6: Differential privacy for Deep Learning</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I had to reduce my activity for about 2 weeks
- and went totally off on Saturday and Sunday to recover
-from a sprained ankle 
+    <t>Finished the project intro: Example Scenario Deep Learning in a Hospital in Lesson 6: Differential privacy for Deep Learning</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I had to reduce my activity for about 2 weeks and went totally off on Saturday and Sunday to recover from a sprained ankle 
 </t>
   </si>
   <si>
     <t>Reached the 4th video "PATE analysis" of lesson 6: Differential privacy for deep learning</t>
   </si>
   <si>
-    <t>Contributed and answered some questions in the slack channels
- #l2_intro_diff_privacy  #l3_eval_privacy_func  #l4_loc_glob_diff_priv</t>
-  </si>
-  <si>
-    <t>Finally reached the final project in lesson 6: Differential privacy
- for deep learning and intend to attempt it tomorrow</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Contributed and answered some questions in the slack channels
- #l2_intro_diff_privacy  #l3_eval_privacy_func  #l4_loc_glob_diff_priv 
-#l5_diff_privacy_dl </t>
-  </si>
-  <si>
-    <t>Started and worked on the final project in
-lesson 6: Differential privacy for deep learning,
-I'm also grateful to @Ronit for answering my question which 
-has made me made progress in it, I intend on completing it the next day.</t>
+    <t>Contributed and answered some questions in the slack channels #l2_intro_diff_privacy  #l3_eval_privacy_func  #l4_loc_glob_diff_priv</t>
+  </si>
+  <si>
+    <t>Finally reached the final project in lesson 6: Differential privacy for deep learning and intend to attempt it tomorrow</t>
+  </si>
+  <si>
+    <t>I would like to encourage @geekykant @Oluwarotimi Adesina @Abimbola Olayemi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Contributed and answered some questions in the slack channels #l2_intro_diff_privacy  #l3_eval_privacy_func  #l4_loc_glob_diff_priv #l5_diff_privacy_dl </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Started and worked on the final project in lesson 6: Differential privacy for deep learning, I'm also grateful to @Ronit for answering my question which has made me made progress in it, I intend on completing it the next day.</t>
   </si>
   <si>
     <t>https://colab.research.google.com/drive/1-eyM_Nfi6zaauFOwHr44ko5qy-_gXiYq</t>
   </si>
   <si>
+    <t>I would like to encourage @Rajat Singhal @Ronit @Abimbola Olayemi</t>
+  </si>
+  <si>
     <t>Participated in the ama section</t>
   </si>
   <si>
-    <t xml:space="preserve">Continued working on the final project in lesson 6: 
-Differential privacy for deep learning, 
-I implemented the models for the hospital databases 
-and also trained the models on the hospital datasets. </t>
-  </si>
-  <si>
-    <t>I intend to use the models to label the public database and 
-complete the project tommorrow</t>
+    <t xml:space="preserve">Continued working on the final project in lesson 6: Differential privacy for deep learning, I implemented the models for the hospital databases and also trained the models on the hospital datasets. </t>
+  </si>
+  <si>
+    <t>I intend to use the models to label the public database and complete the project tommorrow</t>
   </si>
   <si>
     <t>Got stuck on the project I was working on so I rewatched the pytorch section</t>
   </si>
   <si>
-    <t>Watched a couple of Videos by Andrew Ng on Hyperparameters
- to gain more insight into the concept.</t>
+    <t>Watched a couple of Videos by Andrew Ng on Hyperparameters to gain more insight into the concept.</t>
   </si>
   <si>
     <t>https://www.youtube.com/watch?v=1waHlpKiNyY&amp;list=PLkDaE6sCZn6Hn0vK8co82zjQtt3T2Nkqc</t>
   </si>
   <si>
-    <t xml:space="preserve">Finished my implementation of the final project in lesson 5: 
-differential privacy in deep-learning </t>
-  </si>
-  <si>
-    <t>Had a virtual meetup with my group mates #sg_study_jahm 
-@Anju Mercian @Jess  @Ayesha Manzur @Daniel Adinugroho
-@Deasy Indrawati @Helena Barmer @Stark @Sourav @Suraj Kumar 
-@Oudarjya Sen Sarma @Temitope Oladokun. 
-It was amazing and really productive.</t>
+    <t xml:space="preserve">Finished my implementation of the final project in lesson 5: differential privacy in deep-learning </t>
+  </si>
+  <si>
+    <t>Had a virtual meetup with my group mates #sg_study_jahm @Anju Mercian @Jess  @Ayesha Manzur @Daniel Adinugroho@Deasy Indrawati @Helena Barmer @Stark @Sourav @Suraj Kumar @Oudarjya Sen Sarma @Temitope Oladokun. It was amazing and really productive.</t>
   </si>
   <si>
     <t>https://colab.research.google.com/drive/1-eyM_Nfi6zaauFOwHr44ko5qy-_gXiYq#scrollTo=Kl69hfZp_PCO</t>
   </si>
   <si>
-    <t xml:space="preserve">Uploaded my implementation of lesson 6: Differential privacy in deep learning
- project to my GitHub account. </t>
+    <t xml:space="preserve">Uploaded my implementation of lesson 6: Differential privacy in deep learning project to my GitHub account. </t>
   </si>
   <si>
     <t>https://github.com/nerytompz/Differential-privacy-for-deeplearning-project</t>
   </si>
   <si>
-    <t>Posted certain articles regarding the current topic: 
-Ethical AI being studied in my study group #sg_study_jahm.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Finally finished Lesson 6: Differential privacy in deep learning and
- would start the next lesson </t>
+    <t>Posted certain articles regarding the current topic: Ethical AI being studied in my study group #sg_study_jahm.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Finally finished Lesson 6: Differential privacy in deep learning and would start the next lesson :muscle::skin-tone-5:</t>
+  </si>
+  <si>
+    <t>I am tagging @Anju Mercian @Jess @Helena Barmer @Stark  @Temitope Oladokun @Sourav @Samuela Anastasi</t>
   </si>
   <si>
     <t>Started Lesson 7: Federated Learning.</t>
@@ -122,9 +107,7 @@
     <t>https://www.youtube.com/watch?v=xJkY3ehX_MI&amp;t=142s</t>
   </si>
   <si>
-    <t>I watched the video of the webinar with Robert Wagner which held 
-yesterday that I was unable to attend. I really learned a lot on opensource 
-and the importance of contributing to opensource software</t>
+    <t>I watched the video of the webinar with Robert Wagner which held yesterday that I was unable to attend. I really learned a lot on opensource and the importance of contributing to opensource software</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.youtube.com/watch?v=9D_jxOMZmRI </t>
@@ -133,116 +116,106 @@
     <t xml:space="preserve">Answered some questions and contributed on the slack channels #l4_loc_glob_diff_priv #l5_diff_privacy_dl </t>
   </si>
   <si>
-    <t xml:space="preserve">I had an entertaining and informative video conference with 
-@Oluwarotimi Adesina @Rupesh Purum @Dammy where we studied and 
-worked together on the final project for Lesson 5: Differential privacy for 
-deep learning. </t>
-  </si>
-  <si>
-    <t>Answered some questions and contributed on the slack channels 
-#l4_loc_glob_diff_priv #l5_diff_privacy_dl.</t>
-  </si>
-  <si>
-    <t>Decided on doing a project in computer vision that involves detecting 
-denominations of banknotes.</t>
-  </si>
-  <si>
-    <t>Attended a virtual meetup with my study group members from the 
-#sg_wonder_vision where we discussed computer vision, object detection 
-and how we can develop and use the concepts in real-time object detection.</t>
-  </si>
-  <si>
-    <t>Answered some questions and contributed on the slack channels 
-#l5_diff_privacy_dl #general #sg_wonder_vision</t>
-  </si>
-  <si>
-    <t>Missed today's AMA section so I went through the questions and answers 
-when I got online.</t>
-  </si>
-  <si>
-    <t>Started reading the tutorial shared in #sg_wonder_vision to learn real-time 
-object detection with YOLO and open cv.</t>
-  </si>
-  <si>
-    <t>I am tagging everyone that participated in the #sg_wonder_vision virtual meetup 
-@Pooja Vinod @Arunn @Joyce Obi @Shashi Gharti @Sourav @susyjam
-@James Korge @Abhishek Tandon @Mohona @Jess@Seeratpal K. Jaura 
-@nabhanpv @Helena Barmer @Mahak Bansal</t>
-  </si>
-  <si>
-    <t>Watched and practiced the tutorial sent to the #sg_wonder_vision  study group
- on real-time object detection.</t>
+    <t xml:space="preserve">I had an entertaining and informative video conference with @Oluwarotimi Adesina @Rupesh Purum @Dammy where we studied and worked together on the final project for Lesson 5: Differential privacy for deep learning. </t>
+  </si>
+  <si>
+    <t>Answered some questions and contributed on the slack channels #l4_loc_glob_diff_priv #l5_diff_privacy_dl.</t>
+  </si>
+  <si>
+    <t>Decided on doing a project in computer vision that involves detecting denominations of banknotes.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I am tagging @Anju Mercian @Jess @Helena Barmer @Stark  @Temitope Oladokun@Sourav @Samuela Anastasi @Abimbola Olayemi @App @Oudarjya Sen Sarma @Rupesh Purum @Oluwarotimi Adesina @Dammy </t>
+  </si>
+  <si>
+    <t>Attended a virtual meetup with my study group members from the #sg_wonder_vision where we discussed computer vision, object detection and how we can develop and use the concepts in real-time object detection.</t>
+  </si>
+  <si>
+    <t>Answered some questions and contributed on the slack channels #l5_diff_privacy_dl #general #sg_wonder_vision</t>
+  </si>
+  <si>
+    <t>Missed today's AMA section so I went through the questions and answers when I got online.</t>
+  </si>
+  <si>
+    <t>Started reading the tutorial shared in #sg_wonder_vision to learn real-time object detection with YOLO and open cv.</t>
+  </si>
+  <si>
+    <t>I am tagging everyone that participated in the #sg_wonder_vision virtual meetup @Pooja Vinod @Arunn @Joyce Obi @Shashi Gharti @Sourav @susyjam@James Korge @Abhishek Tandon @Mohona @Jess@Seeratpal K. Jaura @nabhanpv @Helena Barmer @Mahak Bansal</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> I want to encourage @Anju Mercian @Jess @Helena Barmer @Stark  @Temitope Oladokun@Sourav @Samuela Anastasi @Abimbola Olayemi @App @Oudarjya Sen Sarma @Rupesh Purum @Oluwarotimi Adesina @Dammy</t>
+  </si>
+  <si>
+    <t>Watched and practiced the tutorial sent to the #sg_wonder_vision  study group on real-time object detection.</t>
   </si>
   <si>
     <t>https://www.pyimagesearch.com/2018/11/12/yolo-object-detection-with-opencv/</t>
   </si>
   <si>
-    <t>Answered some questions and contributed on the slack channels
-#l4_loc_glob_diff_priv#l5_diff_privacy_dl.</t>
-  </si>
-  <si>
-    <t>Started looking for sources of training data for my intended project to create a 
-model that can identify the denominations of my country currency.</t>
-  </si>
-  <si>
-    <t>Practiced the tutorial sent to the #sg_wonder_vision  study group on real-time
-object detection.</t>
-  </si>
-  <si>
-    <t>I had a physical meetup with @Temitope Oladokun in Lagos, Nigeria. 
-we worked on and discussed the differential privacy in deep-learning project.</t>
-  </si>
-  <si>
-    <t>I  had a virtual meetup with my study buddies from #sg_study_jahm  
-@Helena Barmer @Anju Mercian @erinSnPAI @Jess @Frida  
-@Temitope Oladokun @Rupesh @susyjam @Stark @Shivam Raisharma
- @Anita</t>
-  </si>
-  <si>
-    <t>I had a virtual meetup with my study buddies from #sg_nigerian  @Dammy,
- @Temitope Oladokun, @Precious, @Oluwarotimi Adesina
- @AGU CHIDIEBERE FRANCIS, @Jethro Sam-Marcus, @chijioke.roy 
-@Ebinbin Ajagun  @Joyce</t>
-  </si>
-  <si>
-    <t>I had a virtual meetup with @Temitope Oladokun we discussed the 
-differential privacy in deep-learning project.</t>
-  </si>
-  <si>
-    <t>I had a virtual meetup with @Temitope Oladokun, we discussed Lesson 6: 
-Differential privacy for Deep Learning final project.</t>
+    <t>Answered some questions and contributed on the slack channels #l4_loc_glob_diff_priv#l5_diff_privacy_dl.</t>
+  </si>
+  <si>
+    <t>Started looking for sources of training data for my intended project to create a model that can identify the denominations of my country currency.</t>
+  </si>
+  <si>
+    <t>I am tagging @Anju Mercian @Jess @Helena Barmer @Stark  @Temitope Oladokun@Sourav @Samuela Anastasi @Abimbola Olayemi @App @Oudarjya Sen Sarma@Rupesh Purum @Oluwarotimi Adesina @Dammy</t>
+  </si>
+  <si>
+    <t>Practiced the tutorial sent to the #sg_wonder_vision  study group on real-time object detection.</t>
+  </si>
+  <si>
+    <t>I had a physical meetup with @Temitope Oladokun in Lagos, Nigeria. we worked on and discussed the differential privacy in deep-learning project.</t>
+  </si>
+  <si>
+    <t> I am tagging @Anju Mercian @Jess @Helena Barmer @Stark  @Temitope Oladokun@Sourav @Samuela Anastasi @Abimbola Olayemi @App @Oudarjya Sen Sarma@Rupesh Purum @Oluwarotimi Adesina @Dammy</t>
+  </si>
+  <si>
+    <t>I  had a virtual meetup with my study buddies from #sg_study_jahm  @Helena Barmer @Anju Mercian @erinSnPAI @Jess @Frida  @Temitope Oladokun @Rupesh @susyjam @Stark @Shivam Raisharma @Anita</t>
+  </si>
+  <si>
+    <t>I had a virtual meetup with my study buddies from #sg_nigerian  @Dammy, @Temitope Oladokun, @Precious, @Oluwarotimi Adesina @AGU CHIDIEBERE FRANCIS, @Jethro Sam-Marcus, @chijioke.roy @Ebinbin Ajagun  @Joyce</t>
+  </si>
+  <si>
+    <t>I had a virtual meetup with @Temitope Oladokun we discussed the differential privacy in deep-learning project.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> I am tagging and encouraging @Anju Mercian @Jess @Helena Barmer @Stark  @Temitope Oladokun@Sourav @Samuela Anastasi @Abimbola Olayemi @App @Oudarjya Sen Sarma@Rupesh Purum @Oluwarotimi Adesina @Dammy to keep up the great job they've all been doing so far </t>
+  </si>
+  <si>
+    <t>I had a virtual meetup with @Temitope Oladokun, we discussed Lesson 6: Differential privacy for Deep Learning final project.</t>
   </si>
   <si>
     <t>Continued my study of lesson 7: Federated Learning.</t>
   </si>
   <si>
-    <t>Covered over 70% of lesson 7: Federated Learning and implemented all the 
-projects until the 8th video in the lesson: Garbage collection and Common  Errors.</t>
+    <t>I am tagging and encouraging @Anju Mercian @Jess @Helena Barmer @Stark  @Temitope Oladokun@Sourav @Samuela Anastasi @Abimbola Olayemi@App @Oudarjya Sen Sarma@Rupesh Purum @Oluwarotimi Adesina @Dammy to keep up the great job they've all been doing so far </t>
+  </si>
+  <si>
+    <t>Covered over 70% of lesson 7: Federated Learning and implemented all the projects until the 8th video in the lesson: Garbage collection and Common  Errors.</t>
   </si>
   <si>
     <t>https://github.com/nerytompz/Federated-Learning-PrivateandSecureAiUdacity</t>
   </si>
   <si>
-    <t>Participated in the slack channels #l4_loc_glob_diff_priv  #l5_diff_privacy_dl
- #l7_sec_federtd_learn</t>
-  </si>
-  <si>
-    <t>Read 2 interesting and engaging articles from medium to understand 
-Federated Learning better.</t>
+    <t>Participated in the slack channels #l4_loc_glob_diff_priv  #l5_diff_privacy_dl #l7_sec_federtd_learn</t>
+  </si>
+  <si>
+    <t>Read 2 interesting and engaging articles from medium to understand Federated Learning better.</t>
   </si>
   <si>
     <t>https://hackernoon.com/a-beginners-guide-to-federated-learning-b29e29ba65cf</t>
   </si>
   <si>
+    <t xml:space="preserve">I am tagging and encouraging @Anju Mercian @Jess @Helena Barmer @Stark  @Temitope Oladokun@Sourav @Samuela Anastasi @Abimbola Olayemi@App @Oudarjya Sen Sarma@Rupesh Purum @Oluwarotimi Adesina @Dammy to keep up the great job they've all been doing so far </t>
+  </si>
+  <si>
     <t>https://towardsdatascience.com/the-new-dawn-of-ai-federated-learning-8ccd9ed7fc3a</t>
   </si>
   <si>
-    <t>Started working on my personal project, a model to recognize my country's 
-currency denominations.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Missed the AMA section, so I went through the messages when I came 
-online to get updated on new Info. </t>
+    <t>Started working on my personal project, a model to recognize my country's currency denominations.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Missed the AMA section, so I went through the messages when I came online to get updated on new Info. </t>
   </si>
   <si>
     <t>Started gathering train and test data for my project to build a currency classifier.</t>
@@ -252,6 +225,9 @@
   </si>
   <si>
     <t>https://www.youtube.com/watch?v=XuD4C8vJzEQ&amp;list=PLkDaE6sCZn6Gl29AoE31iwdVwSG-KnDzF&amp;index=2</t>
+  </si>
+  <si>
+    <t>I am tagging @Anju Mercian @Jess@Helena Barmer @Stark  @Temitope Oladokun@Sourav@Samuela Anastasi@Abimbola Olayemi @App @Oudarjya Sen Sarma@Rupesh Purum@Oluwarotimi Adesina @Dammy</t>
   </si>
   <si>
     <t>Watched some videos in the Udacity Data Structures and Algorithm course.</t>
@@ -267,41 +243,40 @@
     <t>https://www.youtube.com/watch?v=smHa2442Ah4&amp;list=PLkDaE6sCZn6Gl29AoE31iwdVwSG-KnDzF&amp;index=4</t>
   </si>
   <si>
-    <t>I had an awesome and informative meetup on differential privacy with my 
-study buddies in #sg_nigerian  @Joyce @Ebinbin Ajagun @Dammy 
-@Oladimeji Mudele @Ateniola Oluwatobi Victor@Jethro Sam-Marcus 
-@Precious @AGU CHIDIEBERE FRANCIS @Oluwarotimi Adesina@chijioke.roy 
-@Temitope Oladokun</t>
+    <t xml:space="preserve"> I am tagging and encouraging @Anju Mercian @Jess@Helena Barmer @Stark  @Temitope Oladokun@Sourav@Samuela Anastasi@Abimbola Olayemi @App @Oudarjya Sen Sarma@Rupesh Purum@Oluwarotimi Adesina @Dammy @Karan Kishinani to keep up the great work they have been doing </t>
+  </si>
+  <si>
+    <t>I had an awesome and informative meetup on differential privacy with my study buddies in #sg_nigerian  @Joyce @Ebinbin Ajagun @Dammy @Oladimeji Mudele @Ateniola Oluwatobi Victor@Jethro Sam-Marcus @Precious @AGU CHIDIEBERE FRANCIS @Oluwarotimi Adesina@chijioke.roy @Temitope Oladokun :flag-ng::flag-ng:</t>
+  </si>
+  <si>
+    <t>I am tagging and encouraging @Anju Mercian @Jess@Helena Barmer @Stark  @Temitope Oladokun@Sourav@Samuela Anastasi@Abimbola Olayemi @App @Oudarjya Sen Sarma@Rupesh Purum@Oluwarotimi Adesina @Dammy @Karan Kishinani to keep up the great work they have been doing :ok_hand::skin-tone-4:</t>
   </si>
   <si>
     <t>Studied my notes on federated learning and practised on Google Colab.</t>
   </si>
   <si>
-    <t>Finally finished Lesson 7: Federated Learning and also really enjoyed the 
-interview with Brendan Mcmahan, I intend on starting the Federated Learning
- final project tomorrow.</t>
-  </si>
-  <si>
-    <t>Collated the votes from the poll @Dammy helped organize regarding the 
-most convenient date and time for most to attend the webinar I plan hosting to
- explain and implement the Differential Privacy in Deep learning PATE analysis
- final project and also to discuss differential privacy. I posted details about the
- planned webinar on the #l5_diff_privacy_dl channel.</t>
+    <t>I am tagging and encouraging @Anju Mercian @Jess@Helena Barmer @Stark  @Temitope Oladokun@Sourav@Samuela Anastasi@Abimbola Olayemi @App @Oudarjya Sen Sarma@Rupesh Purum@Oluwarotimi Adesina @Dammy @Karan Kishinani to keep up the great work they have been doing</t>
+  </si>
+  <si>
+    <t>Finally finished Lesson 7: Federated Learning and also really enjoyed the interview with Brendan Mcmahan, I intend on starting the Federated Learning final project tomorrow.</t>
+  </si>
+  <si>
+    <t>Collated the votes from the poll @Dammy helped organize regarding the most convenient date and time for most to attend the webinar I plan hosting to explain and implement the Differential Privacy in Deep learning PATE analysis final project and also to discuss differential privacy. I posted details about the planned webinar on the #l5_diff_privacy_dl channel.</t>
   </si>
   <si>
     <t>https://secureprivataischolar.slack.com/archives/CJS6LLE2J/p1564516727159200?thread_ts=1564451508.146000&amp;cid=CJS6LLE2J</t>
   </si>
   <si>
-    <t>Posted an article and also answered questions in the #l5_diff_privacy_dl 
-and #l1_deep_learn_pytorch  study channels.</t>
+    <t>Posted an article and also answered questions in the #l5_diff_privacy_dl  and #l1_deep_learn_pytorch  study channels.</t>
   </si>
   <si>
     <t>https://towardsdatascience.com/guide-to-choosing-hyperparameters-for-your-neural-networks-38244e87dafe</t>
   </si>
   <si>
-    <t xml:space="preserve">Answered some questions and also had some issues of mine resolved in the
-channels #l5_diff_privacy_dl #l1_deep_learn_pytorch. #l6_federated_learning, 
-thanks to @Berenice @Aisha Javed @Ishan Arora </t>
+    <t> I am tagging and encouraging @Anju Mercian @Jess@Helena Barmer @Stark  @Temitope Oladokun@Sourav@Samuela Anastasi@Abimbola Olayemi @App @Oudarjya Sen Sarma@Rupesh Purum@Oluwarotimi Adesina @Dammy @Karan Kishinani to keep up the great work they have been doing </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Answered some questions and also had some issues of mine resolved in the channels #l5_diff_privacy_dl #l1_deep_learn_pytorch. #l6_federated_learning, thanks to @Berenice @Aisha Javed @Ishan Arora </t>
   </si>
   <si>
     <t>Started working on the Federated Learning final project.</t>
@@ -310,16 +285,19 @@
     <t>https://colab.research.google.com/drive/1_yWHdbPA7jL5sTf-gLMSC2Qd3sOmtynM</t>
   </si>
   <si>
-    <t>Attended and enjoyed the Putting Humans at the Center of AI conference 
-which held today and was hosted online live by Dr. Fei Fei Li and Sebastian Thrun</t>
-  </si>
-  <si>
-    <t>Continued working on the Federated Learning final project, I created the 
-virtual worker models and started training on them.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Continued working on the Federated Learning final project, Finished the 
-project but still trying to clean up some bugs.
+    <t>I am tagging and encouraging @Anju Mercian @Jess@Helena Barmer @Stark  @Temitope Oladokun@Sourav@Samuela Anastasi@Abimbola Olayemi @App @Oudarjya Sen Sarma@Rupesh Purum@Oluwarotimi Adesina @Dammy @Karan Kishinani to keep up the great work they have been doing </t>
+  </si>
+  <si>
+    <t>Attended and enjoyed the Putting Humans at the Center of AI conference which held today and was hosted online live by Dr. Fei Fei Li and Sebastian Thrun</t>
+  </si>
+  <si>
+    <t>Continued working on the Federated Learning final project, I created the virtual worker models and started training on them.</t>
+  </si>
+  <si>
+    <t> I am tagging and encouraging @Anju Mercian @Jess@Helena Barmer @Stark  @Temitope Oladokun@Sourav@Samuela Anastasi@Abimbola Olayemi@App @Oudarjya Sen Sarma@Rupesh Purum@Oluwarotimi Adesina @Dammy @Karan Kishinani to keep up the great work they have been doing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Continued working on the Federated Learning final project, Finished the project but still trying to clean up some bugs.
 </t>
   </si>
   <si>
@@ -332,10 +310,10 @@
     <t xml:space="preserve">Attended a virtual meetup with my study buddies from #sg_study_jahm </t>
   </si>
   <si>
-    <t>I hosted a webinar where we spoke about Differential privacy and the 
-Differential privacy in Deep learning PATE analysis project. I recorded the 
-meetup and provided links for the record and also for my implementation 
-of the project.</t>
+    <t>I am tagging and encouraging @Anju Mercian @Jess@Helena Barmer @Stark  @Temitope Oladokun@Sourav@Samuela Anastasi@Abimbola Olayemi@App @Oudarjya Sen Sarma@Rupesh Purum@Oluwarotimi Adesina @Dammy @Karan Kishinani to keep up the great work they have been doing </t>
+  </si>
+  <si>
+    <t>I hosted a webinar where we spoke about Differential privacy and the Differential privacy in Deep learning PATE analysis project. I recorded the meetup and provided links for the record and also for my implementation of the project.</t>
   </si>
   <si>
     <t>Attended a virtual meetup with my study buddies from #sg_study_naija</t>
@@ -344,42 +322,43 @@
     <t>https://drive.google.com/open?id=12ojFNMMNspujQcSnu_H35aNmQrf1n-sZ</t>
   </si>
   <si>
+    <t xml:space="preserve"> I am tagging and encouraging @Anju Mercian @Jess@Helena Barmer @Stark  @Temitope Oladokun@Sourav@Samuela Anastasi@Abimbola Olayemi@App @Oudarjya Sen Sarma@Rupesh Purum@Oluwarotimi Adesina @Dammy @Karan Kishinani @akshu18 @Archit @Raunak Sarada @Ayush Yadav @Jess @Gogulaanand R@Alexander Villasoto@erinSnPAI @Seeratpal K. Jaura @Sourav @Nishant Bharat @Ivy @Jaiki Yadav@Suparna S Nair@Jeremiah Kamama @Ebinbin Ajagun @Tracy Adams @nabhanpv  @Erin Hu @Akash Antony to keep up the great work they have been doing :ok_hand::skin-tone-5:</t>
+  </si>
+  <si>
     <t xml:space="preserve"> continued  work on my personal project for the course.</t>
   </si>
   <si>
     <t xml:space="preserve"> Participated in the AMA section.</t>
   </si>
   <si>
+    <t>I am tagging and encouraging @Anju Mercian @Jess@Helena Barmer @Stark  @Temitope Oladokun@Sourav@Samuela Anastasi@Abimbola Olayemi@App @Oudarjya Sen Sarma@Rupesh Purum@Oluwarotimi Adesina @Dammy @Karan Kishinani @akshu18 @Archit @Raunak Sarada @Ayush Yadav @Jess @Gogulaanand R@Alexander Villasoto@erinSnPAI @ @Sourav @Nishant Bharat @Ivy @Jaiki Yadav@Suparna S Nair@Jeremiah Kamama @Ebinbin Ajagun @Tracy Adams @nabhanpv  @Erin Hu @Akash Antony to keep up the great work they have been doing :ok_hand::skin-tone-5:</t>
+  </si>
+  <si>
     <t>Started watching the videos in Lesson 8: Seccuring Federated learning.</t>
   </si>
   <si>
     <t>https://www.youtube.com/watch?v=89BGjQYA0uE</t>
   </si>
   <si>
-    <t>Watched the section of Google I/O 2019 where federated learning and
- decentralized machine learning was discussed and also  how Google applies 
-the tools to protect user privacy while running machine learning models for 
-predictive text recognition on users devices.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Answered questions in the slack channels #l1_deep_learn_pytorch  
-#l6_federated_learning </t>
+    <t>Watched the section of Google I/O 2019 where federated learning and decentralized machine learning was discussed and also  how Google applies the tools to protect user privacy while running machine learning models for predictive text recognition on users devices.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Answered questions in the slack channels #l1_deep_learn_pytorch  #l6_federated_learning </t>
   </si>
   <si>
     <t>Started trying out different model architectures to use with my project.</t>
   </si>
   <si>
-    <t>Watched Siraj's video on privacy in AI and new techniques to preserve 
-privacy in AI models.</t>
+    <t>Watched Siraj's video on privacy in AI and new techniques to preserve privacy in AI models.</t>
   </si>
   <si>
     <t>https://www.youtube.com/watch?v=HAC6sqq7_-U</t>
   </si>
   <si>
-    <t>Answered questions in the slack channels and posted a link to the webinar 
-I organized on August 4 on Differential privacy and the PATE analysis project 
-to assist anyone who needs assistance in Differential privacy and 
-PATE analysis.</t>
+    <t>I am tagging and encouraging @Anju Mercian @Jess@Helena Barmer @Stark  @Temitope Oladokun@Sourav@Samuela Anastasi@Abimbola Olayemi@App @Oudarjya Sen Sarma@Rupesh Purum@Oluwarotimi Adesina @Dammy @Karan Kishinani @akshu18 @Archit @Raunak Sarada @Ayush Yadav @Jess @Gogulaanand R@Alexander Villasoto@erinSnPAI @ @Sourav @Nishant Bharat @Ivy @Jaiki Yadav@Suparna S Nair@Jeremiah Kamama@Ebinbin Ajagun @Tracy Adams @nabhanpv  @Erin Hu @Akash Antony to keep up the great work they have been doing </t>
+  </si>
+  <si>
+    <t>Answered questions in the slack channels and posted a link to the webinar I organized on August 4 on Differential privacy and the PATE analysis project to assist anyone who needs assistance in Differential privacy and PATE analysis.</t>
   </si>
   <si>
     <t>https://secureprivataischolar.slack.com/archives/CJSCX4WAZ/p1565294554366600</t>
@@ -388,78 +367,69 @@
     <t>Participated in the morning and evening AMA sections today.</t>
   </si>
   <si>
-    <t>Started working on the Project: Build Methods for Encrypt Decrypt and 
-Add in the Securing Federated Learning section of the course.</t>
-  </si>
-  <si>
-    <t>Attended the Deep Reinforcement Learning webinar with 
-@Juan Carlos Kuri Pinto, Thanks to @Helena Barmer for organising.</t>
-  </si>
-  <si>
-    <t>Continued writing the code for the project I intend to submit for the 
-project showcase.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Attended a Virtual meet-up with my buddies at #sg_pytorch-robotics 
-@Muhammad Naufil @Juan Carlos Kuri Pinto @Jess @cibaca @Mika @Ivy 
-@Suparna S Nair @Bhadresh Savani @Stanislav Ladyzhenskiy @Mateusz
-@Nirupama Singh @Ebinbin Ajagun @Ayesha Manzur @Mahitej @Divya 
-@Sourav @Nancy Al Aswad @Laura A @Sayed Maheen Basheer 
-@Elena Kutanov @Dammy @Temitope Oladokun @Joy Poddar @Helena Barmer 
-@Oudarjya Sen Sarma @Mr.Robot @Pooja Vinod :robot_face:
+    <t>Started working on the Project: Build Methods for Encrypt Decrypt and Add in the Securing Federated Learning section of the course.</t>
+  </si>
+  <si>
+    <t>I am tagging and encouraging @Anju Mercian @Jess@Helena Barmer @Stark  @Temitope Oladokun@Sourav@Samuela Anastasi@Abimbola Olayemi@App @Oudarjya Sen Sarma@Rupesh Purum@Oluwarotimi Adesina @Dammy @Karan Kishinani @akshu18@Archit @Raunak Sarada @Ayush Yadav @Jess @Gogulaanand R@Alexander Villasoto@erinSnPAI @ @Sourav @Nishant Bharat @Ivy @Jaiki Yadav@Suparna S Nair@Jeremiah Kamama@Ebinbin Ajagun @Tracy Adams @nabhanpv  @Erin Hu @Akash Antony to keep up the great work they have been doing </t>
+  </si>
+  <si>
+    <t>Attended the Deep Reinforcement Learning webinar with @Juan Carlos Kuri Pinto, Thanks to @Helena Barmer for organising.</t>
+  </si>
+  <si>
+    <t>Continued writing the code for the project I intend to submit for the project showcase.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I am tagging and encouraging @Anju Mercian @Jess @Helena Barmer  @Stark @Temitope Oladokun @Sourav @Samuela Anastasi @App @Oudarjya Sen Sarma @Rupesh Purum  @Oluwarotimi Adesina @Dammy @Karan Kishinani @akshu18 @Archit @Raunak Sarada to keep up the great work they have been doing </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Attended a Virtual meet-up with my buddies at #sg_pytorch-robotics @Muhammad Naufil @Juan Carlos Kuri Pinto @Jess @cibaca @Mika @Ivy @Suparna S Nair @Bhadresh Savani @Stanislav Ladyzhenskiy @Mateusz@Nirupama Singh @Ebinbin Ajagun @Ayesha Manzur @Mahitej @Divya @Sourav @Nancy Al Aswad @Laura A @Sayed Maheen Basheer @Elena Kutanov @Dammy @Temitope Oladokun @Joy Poddar @Helena Barmer @Oudarjya Sen Sarma @Mr.Robot @Pooja Vinod :robot_face:
 </t>
   </si>
   <si>
-    <t xml:space="preserve"> Attended a Virtual meet-up with my  #sg_study_jahm buddies @Jess, 
-@Anju Mercian, @Pooja Vinod @Ingus Terbets @Shudipto Trafder 
-@Oudarjya Sen Sarma @Helena Barmer @Ivy @Ayushi Gupta 
-@Stanislav Ladyzhenskiy @Mateusz @Sourav@cibaca
- @Sayed Maheen Basheer @Sushil Ghimire @susyjam @Labiba @Frida 
-@Abhishek Tandon @Stark 
-@Ayesha Manzur we discussed AI Cyborgs &amp; Neuralink</t>
-  </si>
-  <si>
-    <t>Finished Lesson 8: Securing Federated Learning Also started working 
-and made significant progress with the final project.</t>
+    <t xml:space="preserve"> Attended a Virtual meet-up with my  #sg_study_jahm buddies @Jess, @Anju Mercian, @Pooja Vinod @Ingus Terbets @Shudipto Trafder @Oudarjya Sen Sarma @Helena Barmer @Ivy @Ayushi Gupta @Stanislav Ladyzhenskiy @Mateusz @Sourav@cibaca @Sayed Maheen Basheer @Sushil Ghimire @susyjam @Labiba @Frida @Abhishek Tandon @Stark @Ayesha Manzur we discussed AI Cyborgs &amp; Neuralink</t>
+  </si>
+  <si>
+    <t>Finished Lesson 8: Securing Federated Learning Also started working and made significant progress with the final project.</t>
   </si>
   <si>
     <t>https://colab.research.google.com/drive/1e0RPfX_sR1_FVw39XvgV3z17qC3XObhC</t>
   </si>
   <si>
-    <t xml:space="preserve">Finished Implementing the Final project for 
-Lesson 8: Securing Federated Learning, I implemented the project using the 
-mnist digit dataset.
+    <t>I am tagging and encouraging @Anju Mercian @Jess @Helena Barmer  @Stark @Temitope Oladokun @Sourav @Samuela Anastasi @App @Oudarjya Sen Sarma @Rupesh Purum  @Oluwarotimi Adesina @Dammy @Karan Kishinani @akshu18 @Archit @Raunak Sarada to keep up the great work they have been doing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Finished Implementing the Final project for Lesson 8: Securing Federated Learning, I implemented the project using the mnist digit dataset.
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Attended a meeting with my study buddies from #sg_nigerian :flag-ng:
-@Temitope Oladokun @Joyce @Ebinbin Ajagun @Jethro Sam-Marcus 
-@AGU CHIDIEBERE FRANCIS@Temitope Oladokun, 
-we discussed the final project we intend to submit for the project showcase. </t>
+    <t xml:space="preserve">Attended a meeting with my study buddies from #sg_nigerian :flag-ng:@Temitope Oladokun @Joyce @Ebinbin Ajagun @Jethro Sam-Marcus @AGU CHIDIEBERE FRANCIS@Temitope Oladokun, we discussed the final project we intend to submit for the project showcase. </t>
   </si>
   <si>
     <t xml:space="preserve">Answered some questions in #l7_sec_federtd_learn #l6_federated_learning </t>
   </si>
   <si>
-    <t xml:space="preserve">Finally finished the whole Secure and Private AI Scholarship Challenge 
-Nanodegree Program!!! Thanks to Facebook, Udacity, @Palak.Udacity, 
-@akshit.udacity and everyone that assisted me all the way </t>
-  </si>
-  <si>
-    <t>Continued working on my final project. I successfully trained my model,
-I would use the model in an app.</t>
-  </si>
-  <si>
-    <t>Continued working on my final project. I tested the model on a new set of test 
-datasets and I was not satisfied with the results I got. I am trying different 
-model architectures now to see which one works best.</t>
+    <t xml:space="preserve"> I am tagging and encouraging @Anju Mercian @Jess @Helena Barmer  @Stark @Temitope Oladokun @Sourav @Samuela Anastasi @App @Oudarjya Sen Sarma @Rupesh Purum  @Oluwarotimi Adesina @Dammy @Karan Kishinani @akshu18 @Archit @Raunak Sarada to keep up the great work they have been doing :ok_hand::skin-tone-5:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Finally finished the whole Secure and Private AI Scholarship Challenge Nanodegree Program!!! Thanks to Facebook, Udacity, @Palak.Udacity, @akshit.udacity and everyone that assisted me all the way </t>
+  </si>
+  <si>
+    <t> I am tagging and encouraging @Anju Mercian @Jess @Helena Barmer  @Stark@Temitope Oladokun @Sourav @Samuela Anastasi @App @Oudarjya Sen Sarma @Rupesh Purum  @Oluwarotimi Adesina @Dammy @Karan Kishinani @akshu18 @Archit @Raunak Sarada to keep up the great work they have been doing </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> continued working on my final project. I successfully trained my model, I would use the model in an app.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I am tagging and encouraging @Anju Mercian @Jess @Helena Barmer  @Stark @Temitope Oladokun @Sourav @Samuela Anastasi @App @Oudarjya Sen Sarma @Rupesh Purum  @Oluwarotimi Adesina @Dammy @Karan Kishinani @akshu18 @Archit @Raunak Sarada to keep up the great work they have been doing  </t>
+  </si>
+  <si>
+    <t>Continued working on my final project. I tested the model on a new set of test datasets and I was not satisfied with the results I got. I am trying different model architectures now to see which one works best.</t>
   </si>
   <si>
     <t>https://www.youtube.com/watch?v=EOfCEhWq8sg&amp;t=95s</t>
   </si>
   <si>
-    <t>Watched the video below and read the articles to learn more about Transfer 
-learning and also android development.</t>
+    <t>Watched the video below and read the articles to learn more about Transfer learning and also android development.</t>
   </si>
   <si>
     <t>https://pytorch.org/docs/stable/torchvision/models.html</t>
@@ -468,9 +438,7 @@
     <t>https://pytorch.org/tutorials/beginner/transfer_learning_tutorial.html</t>
   </si>
   <si>
-    <t>Continued working on my final project:  :grinning: I am finally satisfied with 
-my model accuracy, I spent the day learning how to convert my pytorch 
-model to TensorFlowLite in order to use to implement a classifier on android.</t>
+    <t>Continued working on my final project:  :grinning: I am finally satisfied with my model accuracy, I spent the day learning how to convert my pytorch model to TensorFlowLite in order to use to implement a classifier on android.</t>
   </si>
   <si>
     <t>https://www.youtube.com/watch?v=JnhW5tQ_7Vo</t>
@@ -488,8 +456,7 @@
     <t>https://www.tensorflow.org/lite/models/image_classification/overview</t>
   </si>
   <si>
-    <t>Continued working on my final project:  :grinning: I have started working on 
-the android app. I had to refer to Siraj Raval's videos for assistance.</t>
+    <t>Continued working on my final project:  :grinning: I have started working on the android app. I had to refer to Siraj Raval's videos for assistance.</t>
   </si>
   <si>
     <t>https://www.youtube.com/watch?v=OE6wssMJoag&amp;t=681s</t>
@@ -501,18 +468,19 @@
     <t>https://www.youtube.com/watch?v=kFWKdLOxykE&amp;t=2s</t>
   </si>
   <si>
+    <t>I am tagging and encouraging @Anju Mercian @Jess @Helena Barmer  @Stark @Temitope Oladokun @Sourav @Samuela Anastasi @App @Oudarjya Sen Sarma @Rupesh Purum  @Oluwarotimi Adesina @Dammy @Karan Kishinani @akshu18 @Archit @Raunak Sarada to keep up the great work they have been doing</t>
+  </si>
+  <si>
     <t>continued working on my final project:  continued working on the android app.</t>
   </si>
   <si>
     <t>Reviewed the pytorch section of the course.</t>
   </si>
   <si>
-    <t>Uploaded my implementation of the secured federated learning project to 
-the #l7_sec_federtd_learn  channel to assist others.</t>
-  </si>
-  <si>
-    <t>Had issues implementing a pytorch model in android studio so I read up on 
-ONNX framework to achieve that.</t>
+    <t>Uploaded my implementation of the secured federated learning project to the #l7_sec_federtd_learn  channel to assist others.</t>
+  </si>
+  <si>
+    <t>Had issues implementing a pytorch model in android studio so I read up on ONNX framework to achieve that.</t>
   </si>
   <si>
     <t>Finally uploaded my project to the Udacity opensource github account.</t>
@@ -527,29 +495,22 @@
     <t>https://www.youtube.com/watch?v=9JpdAg6uMXs</t>
   </si>
   <si>
-    <t>Read the Introduction to algorithm book by Charles Leiserson
-and learnt about dynamic programming today.</t>
-  </si>
-  <si>
-    <t>Started reviewing the course content from the beginning.
-Currently reviewing my notes on differential privacy.</t>
-  </si>
-  <si>
-    <t>Continued reviewing the course content.
-Tried implementing a simple neural network using numpy ​</t>
-  </si>
-  <si>
-    <t>wow, I can't believe the program is almost ending.
-I attended the final meetup of my study group #sg_study_jahm,
-where we discussed data privacy leakage.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wow, I can't believe the program is almost ending. I hosted and attended the
-final meetup of the study group #sg_nigerian. </t>
-  </si>
-  <si>
-    <t>Submitted my project showcase challenge project to the
- #project-showcase-challenge channel.</t>
+    <t>Read the Introduction to algorithm book by Charles Leiserson and learnt about dynamic programming today.</t>
+  </si>
+  <si>
+    <t>Started reviewing the course content from the beginning. Currently reviewing my notes on differential privacy.</t>
+  </si>
+  <si>
+    <t>Continued reviewing the course content. Tried implementing a simple neural network using numpy ​</t>
+  </si>
+  <si>
+    <t>wow, I can't believe the program is almost ending. I attended the final meetup of my study group #sg_study_jahm, where we discussed data privacy leakage.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wow, I can't believe the program is almost ending. I hosted and attended the final meetup of the study group #sg_nigerian. </t>
+  </si>
+  <si>
+    <t>Submitted my project showcase challenge project to the #project-showcase-challenge channel.</t>
   </si>
   <si>
     <t>https://secureprivataischolar.slack.com/archives/CMHLLUAE5/p1566850948380600</t>
@@ -561,8 +522,7 @@
     <t>https://forms.gle/DuyYvMwQ4BMr2YmSA</t>
   </si>
   <si>
-    <t>Watched a lecture from Microsoft's research team on how to apply 
-differential privacy on growing/dynamic databases.</t>
+    <t>Watched a lecture from Microsoft's research team on how to apply differential privacy on growing/dynamic databases.</t>
   </si>
   <si>
     <t>https://m.youtube.com/watch?v=Rj8FkJZgFtk</t>
@@ -586,19 +546,16 @@
     <t>https://www.linkedin.com/in/oluwatobi-ateniola-20b666166</t>
   </si>
   <si>
-    <t>I appreciate Udacity, Facebook and everyone for the appreciation my project
- got in the project showcase challenge.</t>
+    <t>I appreciate Udacity, Facebook and everyone for the appreciation my project got in the project showcase challenge.</t>
   </si>
   <si>
     <t>https://m.youtube.com/watch?v=b6AGUjqIPsA</t>
   </si>
   <si>
-    <t xml:space="preserve">I read up on algorithms, primarily dynamic programming and also on its 
-application in solving the edit distance computational problem. </t>
-  </si>
-  <si>
-    <t>I had an amazing time participating in the Secure and Private AI challenge 
-closing party organized by @Yemi , @Archit and held in #ama_sessions</t>
+    <t xml:space="preserve">I read up on algorithms, primarily dynamic programming and also on its application in solving the edit distance computational problem. </t>
+  </si>
+  <si>
+    <t>I had an amazing time participating in the Secure and Private AI challenge closing party organized by @Yemi , @Archit and held in #ama_sessions</t>
   </si>
   <si>
     <t>solved some algorithmic problems involving dynamic programming in HackerRank</t>
@@ -769,7 +726,6 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
-    <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1027,7 +983,9 @@
     <row r="9" ht="15.75" customHeight="1">
       <c r="A9" s="9"/>
       <c r="B9" s="10"/>
-      <c r="C9" s="12"/>
+      <c r="C9" s="12" t="s">
+        <v>9</v>
+      </c>
       <c r="D9" s="8"/>
       <c r="E9" s="9"/>
       <c r="F9" s="9"/>
@@ -1084,7 +1042,7 @@
         <v>4.0</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D11" s="12"/>
       <c r="E11" s="9"/>
@@ -1112,10 +1070,10 @@
       <c r="A12" s="9"/>
       <c r="B12" s="10"/>
       <c r="C12" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D12" s="14" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E12" s="9"/>
       <c r="F12" s="9"/>
@@ -1141,7 +1099,9 @@
     <row r="13" ht="15.75" customHeight="1">
       <c r="A13" s="9"/>
       <c r="B13" s="10"/>
-      <c r="C13" s="7"/>
+      <c r="C13" s="7" t="s">
+        <v>13</v>
+      </c>
       <c r="D13" s="8"/>
       <c r="E13" s="9"/>
       <c r="F13" s="9"/>
@@ -1198,7 +1158,7 @@
         <v>5.0</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="9"/>
@@ -1226,10 +1186,10 @@
       <c r="A16" s="5"/>
       <c r="B16" s="6"/>
       <c r="C16" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D16" s="14" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E16" s="9"/>
       <c r="F16" s="9"/>
@@ -1256,7 +1216,7 @@
       <c r="A17" s="9"/>
       <c r="B17" s="10"/>
       <c r="C17" s="7" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="9"/>
@@ -1314,7 +1274,7 @@
         <v>6.0</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="9"/>
@@ -1342,10 +1302,10 @@
       <c r="A20" s="5"/>
       <c r="B20" s="6"/>
       <c r="C20" s="7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D20" s="15" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E20" s="9"/>
       <c r="F20" s="9"/>
@@ -1402,7 +1362,7 @@
         <v>7.0</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="9"/>
@@ -1430,10 +1390,10 @@
       <c r="A23" s="13"/>
       <c r="B23" s="6"/>
       <c r="C23" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D23" s="14" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E23" s="9"/>
       <c r="F23" s="9"/>
@@ -1490,10 +1450,10 @@
         <v>8.0</v>
       </c>
       <c r="C25" s="12" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D25" s="14" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E25" s="9"/>
       <c r="F25" s="9"/>
@@ -1520,7 +1480,7 @@
       <c r="A26" s="9"/>
       <c r="B26" s="10"/>
       <c r="C26" s="7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="9"/>
@@ -1548,7 +1508,7 @@
       <c r="A27" s="5"/>
       <c r="B27" s="6"/>
       <c r="C27" s="7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D27" s="12"/>
       <c r="E27" s="9"/>
@@ -1575,7 +1535,9 @@
     <row r="28" ht="15.75" customHeight="1">
       <c r="A28" s="9"/>
       <c r="B28" s="10"/>
-      <c r="C28" s="7"/>
+      <c r="C28" s="7" t="s">
+        <v>27</v>
+      </c>
       <c r="D28" s="16"/>
       <c r="E28" s="9"/>
       <c r="F28" s="9"/>
@@ -1632,7 +1594,7 @@
         <v>9.0</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="9"/>
@@ -1660,10 +1622,10 @@
       <c r="A31" s="9"/>
       <c r="B31" s="10"/>
       <c r="C31" s="7" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D31" s="14" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="E31" s="9"/>
       <c r="F31" s="9"/>
@@ -1720,10 +1682,10 @@
         <v>10.0</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D33" s="14" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="E33" s="9"/>
       <c r="F33" s="9"/>
@@ -1750,7 +1712,7 @@
       <c r="A34" s="9"/>
       <c r="B34" s="10"/>
       <c r="C34" s="7" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="9"/>
@@ -1808,7 +1770,7 @@
         <v>11.0</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="9"/>
@@ -1836,7 +1798,7 @@
       <c r="A37" s="9"/>
       <c r="B37" s="10"/>
       <c r="C37" s="7" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="9"/>
@@ -1864,7 +1826,7 @@
       <c r="A38" s="9"/>
       <c r="B38" s="10"/>
       <c r="C38" s="7" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="9"/>
@@ -1891,7 +1853,9 @@
     <row r="39" ht="15.75" customHeight="1">
       <c r="A39" s="9"/>
       <c r="B39" s="10"/>
-      <c r="C39" s="7"/>
+      <c r="C39" s="7" t="s">
+        <v>37</v>
+      </c>
       <c r="D39" s="8"/>
       <c r="E39" s="9"/>
       <c r="F39" s="9"/>
@@ -1948,7 +1912,7 @@
         <v>12.0</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="9"/>
@@ -1976,7 +1940,7 @@
       <c r="A42" s="9"/>
       <c r="B42" s="10"/>
       <c r="C42" s="7" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="9"/>
@@ -2004,7 +1968,7 @@
       <c r="A43" s="9"/>
       <c r="B43" s="10"/>
       <c r="C43" s="7" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="9"/>
@@ -2032,7 +1996,7 @@
       <c r="A44" s="9"/>
       <c r="B44" s="10"/>
       <c r="C44" s="7" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="9"/>
@@ -2060,7 +2024,7 @@
       <c r="A45" s="9"/>
       <c r="B45" s="10"/>
       <c r="C45" s="7" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="9"/>
@@ -2087,7 +2051,9 @@
     <row r="46" ht="15.75" customHeight="1">
       <c r="A46" s="9"/>
       <c r="B46" s="10"/>
-      <c r="C46" s="7"/>
+      <c r="C46" s="7" t="s">
+        <v>43</v>
+      </c>
       <c r="D46" s="8"/>
       <c r="E46" s="9"/>
       <c r="F46" s="9"/>
@@ -2144,10 +2110,10 @@
         <v>13.0</v>
       </c>
       <c r="C48" s="7" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="D48" s="14" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="E48" s="9"/>
       <c r="F48" s="9"/>
@@ -2174,7 +2140,7 @@
       <c r="A49" s="9"/>
       <c r="B49" s="10"/>
       <c r="C49" s="7" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="9"/>
@@ -2202,7 +2168,7 @@
       <c r="A50" s="9"/>
       <c r="B50" s="10"/>
       <c r="C50" s="7" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="9"/>
@@ -2229,7 +2195,9 @@
     <row r="51" ht="15.75" customHeight="1">
       <c r="A51" s="9"/>
       <c r="B51" s="10"/>
-      <c r="C51" s="7"/>
+      <c r="C51" s="7" t="s">
+        <v>48</v>
+      </c>
       <c r="D51" s="8"/>
       <c r="E51" s="9"/>
       <c r="F51" s="9"/>
@@ -2286,10 +2254,10 @@
         <v>14.0</v>
       </c>
       <c r="C53" s="7" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="D53" s="14" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="E53" s="9"/>
       <c r="F53" s="9"/>
@@ -2316,7 +2284,7 @@
       <c r="A54" s="9"/>
       <c r="B54" s="10"/>
       <c r="C54" s="7" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="9"/>
@@ -2344,7 +2312,7 @@
       <c r="A55" s="9"/>
       <c r="B55" s="10"/>
       <c r="C55" s="7" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="9"/>
@@ -2371,7 +2339,9 @@
     <row r="56" ht="15.75" customHeight="1">
       <c r="A56" s="9"/>
       <c r="B56" s="10"/>
-      <c r="C56" s="7"/>
+      <c r="C56" s="7" t="s">
+        <v>52</v>
+      </c>
       <c r="D56" s="8"/>
       <c r="E56" s="9"/>
       <c r="F56" s="9"/>
@@ -2428,7 +2398,7 @@
         <v>15.0</v>
       </c>
       <c r="C58" s="7" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="9"/>
@@ -2456,10 +2426,10 @@
       <c r="A59" s="9"/>
       <c r="B59" s="10"/>
       <c r="C59" s="7" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="D59" s="14" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E59" s="9"/>
       <c r="F59" s="9"/>
@@ -2485,7 +2455,9 @@
     <row r="60" ht="15.75" customHeight="1">
       <c r="A60" s="9"/>
       <c r="B60" s="10"/>
-      <c r="C60" s="7"/>
+      <c r="C60" s="7" t="s">
+        <v>55</v>
+      </c>
       <c r="D60" s="8"/>
       <c r="E60" s="9"/>
       <c r="F60" s="9"/>
@@ -2542,7 +2514,7 @@
         <v>16.0</v>
       </c>
       <c r="C62" s="7" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="9"/>
@@ -2570,7 +2542,7 @@
       <c r="A63" s="9"/>
       <c r="B63" s="10"/>
       <c r="C63" s="7" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="9"/>
@@ -2597,7 +2569,9 @@
     <row r="64" ht="15.75" customHeight="1">
       <c r="A64" s="9"/>
       <c r="B64" s="10"/>
-      <c r="C64" s="7"/>
+      <c r="C64" s="7" t="s">
+        <v>58</v>
+      </c>
       <c r="D64" s="8"/>
       <c r="E64" s="9"/>
       <c r="F64" s="9"/>
@@ -2654,10 +2628,10 @@
         <v>17.0</v>
       </c>
       <c r="C66" s="7" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="D66" s="14" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="E66" s="9"/>
       <c r="F66" s="9"/>
@@ -2684,7 +2658,7 @@
       <c r="A67" s="9"/>
       <c r="B67" s="10"/>
       <c r="C67" s="7" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="9"/>
@@ -2742,10 +2716,10 @@
         <v>18.0</v>
       </c>
       <c r="C69" s="7" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="D69" s="14" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="E69" s="9"/>
       <c r="F69" s="9"/>
@@ -2771,9 +2745,11 @@
     <row r="70" ht="15.75" customHeight="1">
       <c r="A70" s="9"/>
       <c r="B70" s="10"/>
-      <c r="C70" s="7"/>
+      <c r="C70" s="7" t="s">
+        <v>64</v>
+      </c>
       <c r="D70" s="14" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="E70" s="9"/>
       <c r="F70" s="9"/>
@@ -2830,7 +2806,7 @@
         <v>19.0</v>
       </c>
       <c r="C72" s="7" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="9"/>
@@ -2858,7 +2834,7 @@
       <c r="A73" s="9"/>
       <c r="B73" s="10"/>
       <c r="C73" s="7" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="9"/>
@@ -2916,7 +2892,7 @@
         <v>20.0</v>
       </c>
       <c r="C75" s="7" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="9"/>
@@ -2944,10 +2920,10 @@
       <c r="A76" s="9"/>
       <c r="B76" s="10"/>
       <c r="C76" s="7" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="D76" s="14" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="E76" s="9"/>
       <c r="F76" s="9"/>
@@ -2973,7 +2949,9 @@
     <row r="77" ht="15.75" customHeight="1">
       <c r="A77" s="9"/>
       <c r="B77" s="10"/>
-      <c r="C77" s="7"/>
+      <c r="C77" s="7" t="s">
+        <v>71</v>
+      </c>
       <c r="D77" s="8"/>
       <c r="E77" s="9"/>
       <c r="F77" s="9"/>
@@ -3030,10 +3008,10 @@
         <v>21.0</v>
       </c>
       <c r="C79" s="7" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="D79" s="14" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="E79" s="9"/>
       <c r="F79" s="9"/>
@@ -3060,10 +3038,10 @@
       <c r="A80" s="9"/>
       <c r="B80" s="10"/>
       <c r="C80" s="7" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="D80" s="14" t="s">
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="E80" s="9"/>
       <c r="F80" s="9"/>
@@ -3089,7 +3067,9 @@
     <row r="81" ht="15.75" customHeight="1">
       <c r="A81" s="9"/>
       <c r="B81" s="10"/>
-      <c r="C81" s="7"/>
+      <c r="C81" s="7" t="s">
+        <v>76</v>
+      </c>
       <c r="D81" s="8"/>
       <c r="E81" s="9"/>
       <c r="F81" s="9"/>
@@ -3146,7 +3126,7 @@
         <v>22.0</v>
       </c>
       <c r="C83" s="7" t="s">
-        <v>65</v>
+        <v>77</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="9"/>
@@ -3173,7 +3153,9 @@
     <row r="84" ht="15.75" customHeight="1">
       <c r="A84" s="9"/>
       <c r="B84" s="10"/>
-      <c r="C84" s="7"/>
+      <c r="C84" s="7" t="s">
+        <v>78</v>
+      </c>
       <c r="D84" s="8"/>
       <c r="E84" s="9"/>
       <c r="F84" s="9"/>
@@ -3230,7 +3212,7 @@
         <v>23.0</v>
       </c>
       <c r="C86" s="7" t="s">
-        <v>66</v>
+        <v>79</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="9"/>
@@ -3257,7 +3239,9 @@
     <row r="87" ht="15.75" customHeight="1">
       <c r="A87" s="9"/>
       <c r="B87" s="10"/>
-      <c r="C87" s="7"/>
+      <c r="C87" s="7" t="s">
+        <v>80</v>
+      </c>
       <c r="D87" s="8"/>
       <c r="E87" s="9"/>
       <c r="F87" s="9"/>
@@ -3314,7 +3298,7 @@
         <v>24.0</v>
       </c>
       <c r="C89" s="7" t="s">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="9"/>
@@ -3342,10 +3326,10 @@
       <c r="A90" s="9"/>
       <c r="B90" s="10"/>
       <c r="C90" s="7" t="s">
-        <v>68</v>
+        <v>82</v>
       </c>
       <c r="D90" s="14" t="s">
-        <v>69</v>
+        <v>83</v>
       </c>
       <c r="E90" s="9"/>
       <c r="F90" s="9"/>
@@ -3372,10 +3356,10 @@
       <c r="A91" s="9"/>
       <c r="B91" s="10"/>
       <c r="C91" s="7" t="s">
-        <v>70</v>
+        <v>84</v>
       </c>
       <c r="D91" s="14" t="s">
-        <v>71</v>
+        <v>85</v>
       </c>
       <c r="E91" s="9"/>
       <c r="F91" s="9"/>
@@ -3401,7 +3385,9 @@
     <row r="92" ht="15.75" customHeight="1">
       <c r="A92" s="9"/>
       <c r="B92" s="10"/>
-      <c r="C92" s="7"/>
+      <c r="C92" s="7" t="s">
+        <v>86</v>
+      </c>
       <c r="D92" s="8"/>
       <c r="E92" s="9"/>
       <c r="F92" s="9"/>
@@ -3458,7 +3444,7 @@
         <v>25.0</v>
       </c>
       <c r="C94" s="7" t="s">
-        <v>72</v>
+        <v>87</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="9"/>
@@ -3486,10 +3472,10 @@
       <c r="A95" s="9"/>
       <c r="B95" s="10"/>
       <c r="C95" s="7" t="s">
-        <v>73</v>
+        <v>88</v>
       </c>
       <c r="D95" s="14" t="s">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="E95" s="9"/>
       <c r="F95" s="9"/>
@@ -3515,7 +3501,9 @@
     <row r="96" ht="15.75" customHeight="1">
       <c r="A96" s="9"/>
       <c r="B96" s="10"/>
-      <c r="C96" s="7"/>
+      <c r="C96" s="7" t="s">
+        <v>90</v>
+      </c>
       <c r="D96" s="8"/>
       <c r="E96" s="9"/>
       <c r="F96" s="9"/>
@@ -3572,7 +3560,7 @@
         <v>26.0</v>
       </c>
       <c r="C98" s="7" t="s">
-        <v>75</v>
+        <v>91</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="9"/>
@@ -3600,10 +3588,10 @@
       <c r="A99" s="9"/>
       <c r="B99" s="10"/>
       <c r="C99" s="7" t="s">
-        <v>76</v>
+        <v>92</v>
       </c>
       <c r="D99" s="14" t="s">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="E99" s="9"/>
       <c r="F99" s="9"/>
@@ -3629,7 +3617,9 @@
     <row r="100" ht="15.75" customHeight="1">
       <c r="A100" s="9"/>
       <c r="B100" s="10"/>
-      <c r="C100" s="7"/>
+      <c r="C100" s="7" t="s">
+        <v>93</v>
+      </c>
       <c r="D100" s="8"/>
       <c r="E100" s="9"/>
       <c r="F100" s="9"/>
@@ -3686,10 +3676,10 @@
         <v>27.0</v>
       </c>
       <c r="C102" s="7" t="s">
-        <v>77</v>
+        <v>94</v>
       </c>
       <c r="D102" s="14" t="s">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="E102" s="9"/>
       <c r="F102" s="9"/>
@@ -3715,7 +3705,9 @@
     <row r="103" ht="15.75" customHeight="1">
       <c r="A103" s="9"/>
       <c r="B103" s="10"/>
-      <c r="C103" s="7"/>
+      <c r="C103" s="7" t="s">
+        <v>93</v>
+      </c>
       <c r="D103" s="8"/>
       <c r="E103" s="9"/>
       <c r="F103" s="9"/>
@@ -3772,10 +3764,10 @@
         <v>28.0</v>
       </c>
       <c r="C105" s="7" t="s">
-        <v>78</v>
+        <v>95</v>
       </c>
       <c r="D105" s="14" t="s">
-        <v>79</v>
+        <v>96</v>
       </c>
       <c r="E105" s="9"/>
       <c r="F105" s="9"/>
@@ -3802,7 +3794,7 @@
       <c r="A106" s="9"/>
       <c r="B106" s="10"/>
       <c r="C106" s="7" t="s">
-        <v>80</v>
+        <v>97</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="9"/>
@@ -3829,7 +3821,9 @@
     <row r="107" ht="15.75" customHeight="1">
       <c r="A107" s="9"/>
       <c r="B107" s="10"/>
-      <c r="C107" s="7"/>
+      <c r="C107" s="7" t="s">
+        <v>98</v>
+      </c>
       <c r="D107" s="8"/>
       <c r="E107" s="9"/>
       <c r="F107" s="9"/>
@@ -3886,10 +3880,10 @@
         <v>29.0</v>
       </c>
       <c r="C109" s="7" t="s">
-        <v>81</v>
+        <v>99</v>
       </c>
       <c r="D109" s="14" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E109" s="9"/>
       <c r="F109" s="9"/>
@@ -3916,10 +3910,10 @@
       <c r="A110" s="9"/>
       <c r="B110" s="10"/>
       <c r="C110" s="7" t="s">
-        <v>82</v>
+        <v>100</v>
       </c>
       <c r="D110" s="14" t="s">
-        <v>83</v>
+        <v>101</v>
       </c>
       <c r="E110" s="9"/>
       <c r="F110" s="9"/>
@@ -3945,7 +3939,9 @@
     <row r="111" ht="15.75" customHeight="1">
       <c r="A111" s="9"/>
       <c r="B111" s="10"/>
-      <c r="C111" s="7"/>
+      <c r="C111" s="7" t="s">
+        <v>102</v>
+      </c>
       <c r="D111" s="8"/>
       <c r="E111" s="9"/>
       <c r="F111" s="9"/>
@@ -4002,7 +3998,7 @@
         <v>30.0</v>
       </c>
       <c r="C113" s="7" t="s">
-        <v>84</v>
+        <v>103</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="9"/>
@@ -4030,7 +4026,7 @@
       <c r="A114" s="9"/>
       <c r="B114" s="10"/>
       <c r="C114" s="7" t="s">
-        <v>85</v>
+        <v>104</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="9"/>
@@ -4057,7 +4053,9 @@
     <row r="115" ht="15.75" customHeight="1">
       <c r="A115" s="9"/>
       <c r="B115" s="10"/>
-      <c r="C115" s="7"/>
+      <c r="C115" s="7" t="s">
+        <v>105</v>
+      </c>
       <c r="D115" s="8"/>
       <c r="E115" s="9"/>
       <c r="F115" s="9"/>
@@ -4114,10 +4112,10 @@
         <v>31.0</v>
       </c>
       <c r="C117" s="7" t="s">
-        <v>86</v>
+        <v>106</v>
       </c>
       <c r="D117" s="14" t="s">
-        <v>87</v>
+        <v>107</v>
       </c>
       <c r="E117" s="9"/>
       <c r="F117" s="9"/>
@@ -4144,7 +4142,7 @@
       <c r="A118" s="9"/>
       <c r="B118" s="10"/>
       <c r="C118" s="7" t="s">
-        <v>88</v>
+        <v>108</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="9"/>
@@ -4171,7 +4169,9 @@
     <row r="119" ht="15.75" customHeight="1">
       <c r="A119" s="9"/>
       <c r="B119" s="10"/>
-      <c r="C119" s="7"/>
+      <c r="C119" s="7" t="s">
+        <v>105</v>
+      </c>
       <c r="D119" s="8"/>
       <c r="E119" s="9"/>
       <c r="F119" s="9"/>
@@ -4228,7 +4228,7 @@
         <v>32.0</v>
       </c>
       <c r="C121" s="7" t="s">
-        <v>89</v>
+        <v>109</v>
       </c>
       <c r="D121" s="8"/>
       <c r="E121" s="9"/>
@@ -4256,7 +4256,7 @@
       <c r="A122" s="9"/>
       <c r="B122" s="10"/>
       <c r="C122" s="7" t="s">
-        <v>90</v>
+        <v>110</v>
       </c>
       <c r="D122" s="8"/>
       <c r="E122" s="9"/>
@@ -4284,10 +4284,10 @@
       <c r="A123" s="9"/>
       <c r="B123" s="10"/>
       <c r="C123" s="7" t="s">
-        <v>91</v>
+        <v>111</v>
       </c>
       <c r="D123" s="14" t="s">
-        <v>92</v>
+        <v>112</v>
       </c>
       <c r="E123" s="9"/>
       <c r="F123" s="9"/>
@@ -4313,7 +4313,9 @@
     <row r="124" ht="15.75" customHeight="1">
       <c r="A124" s="9"/>
       <c r="B124" s="10"/>
-      <c r="C124" s="7"/>
+      <c r="C124" s="7" t="s">
+        <v>113</v>
+      </c>
       <c r="D124" s="8"/>
       <c r="E124" s="9"/>
       <c r="F124" s="9"/>
@@ -4370,10 +4372,10 @@
         <v>33.0</v>
       </c>
       <c r="C126" s="7" t="s">
-        <v>93</v>
+        <v>114</v>
       </c>
       <c r="D126" s="14" t="s">
-        <v>94</v>
+        <v>115</v>
       </c>
       <c r="E126" s="9"/>
       <c r="F126" s="9"/>
@@ -4400,7 +4402,7 @@
       <c r="A127" s="9"/>
       <c r="B127" s="10"/>
       <c r="C127" s="7" t="s">
-        <v>95</v>
+        <v>116</v>
       </c>
       <c r="D127" s="8"/>
       <c r="E127" s="9"/>
@@ -4428,7 +4430,7 @@
       <c r="A128" s="9"/>
       <c r="B128" s="10"/>
       <c r="C128" s="7" t="s">
-        <v>96</v>
+        <v>117</v>
       </c>
       <c r="D128" s="8"/>
       <c r="E128" s="9"/>
@@ -4455,7 +4457,9 @@
     <row r="129" ht="15.75" customHeight="1">
       <c r="A129" s="9"/>
       <c r="B129" s="10"/>
-      <c r="C129" s="7"/>
+      <c r="C129" s="7" t="s">
+        <v>118</v>
+      </c>
       <c r="D129" s="8"/>
       <c r="E129" s="9"/>
       <c r="F129" s="9"/>
@@ -4512,7 +4516,7 @@
         <v>34.0</v>
       </c>
       <c r="C131" s="7" t="s">
-        <v>97</v>
+        <v>119</v>
       </c>
       <c r="D131" s="8"/>
       <c r="E131" s="9"/>
@@ -4540,7 +4544,7 @@
       <c r="A132" s="9"/>
       <c r="B132" s="10"/>
       <c r="C132" s="7" t="s">
-        <v>98</v>
+        <v>120</v>
       </c>
       <c r="D132" s="8"/>
       <c r="E132" s="9"/>
@@ -4567,7 +4571,9 @@
     <row r="133" ht="15.75" customHeight="1">
       <c r="A133" s="9"/>
       <c r="B133" s="10"/>
-      <c r="C133" s="7"/>
+      <c r="C133" s="7" t="s">
+        <v>121</v>
+      </c>
       <c r="D133" s="8"/>
       <c r="E133" s="9"/>
       <c r="F133" s="9"/>
@@ -4624,7 +4630,7 @@
         <v>35.0</v>
       </c>
       <c r="C135" s="7" t="s">
-        <v>99</v>
+        <v>122</v>
       </c>
       <c r="D135" s="8"/>
       <c r="E135" s="9"/>
@@ -4652,7 +4658,7 @@
       <c r="A136" s="9"/>
       <c r="B136" s="10"/>
       <c r="C136" s="7" t="s">
-        <v>100</v>
+        <v>123</v>
       </c>
       <c r="D136" s="8"/>
       <c r="E136" s="9"/>
@@ -4680,10 +4686,10 @@
       <c r="A137" s="9"/>
       <c r="B137" s="10"/>
       <c r="C137" s="7" t="s">
-        <v>101</v>
+        <v>124</v>
       </c>
       <c r="D137" s="14" t="s">
-        <v>102</v>
+        <v>125</v>
       </c>
       <c r="E137" s="9"/>
       <c r="F137" s="9"/>
@@ -4709,7 +4715,9 @@
     <row r="138" ht="15.75" customHeight="1">
       <c r="A138" s="9"/>
       <c r="B138" s="10"/>
-      <c r="C138" s="7"/>
+      <c r="C138" s="7" t="s">
+        <v>126</v>
+      </c>
       <c r="D138" s="8"/>
       <c r="E138" s="9"/>
       <c r="F138" s="9"/>
@@ -4766,10 +4774,10 @@
         <v>36.0</v>
       </c>
       <c r="C140" s="7" t="s">
-        <v>103</v>
+        <v>127</v>
       </c>
       <c r="D140" s="14" t="s">
-        <v>102</v>
+        <v>125</v>
       </c>
       <c r="E140" s="9"/>
       <c r="F140" s="9"/>
@@ -4796,7 +4804,7 @@
       <c r="A141" s="9"/>
       <c r="B141" s="10"/>
       <c r="C141" s="7" t="s">
-        <v>104</v>
+        <v>128</v>
       </c>
       <c r="D141" s="8"/>
       <c r="E141" s="9"/>
@@ -4824,7 +4832,7 @@
       <c r="A142" s="9"/>
       <c r="B142" s="10"/>
       <c r="C142" s="7" t="s">
-        <v>105</v>
+        <v>129</v>
       </c>
       <c r="D142" s="8"/>
       <c r="E142" s="9"/>
@@ -4851,7 +4859,9 @@
     <row r="143" ht="15.75" customHeight="1">
       <c r="A143" s="9"/>
       <c r="B143" s="10"/>
-      <c r="C143" s="7"/>
+      <c r="C143" s="7" t="s">
+        <v>130</v>
+      </c>
       <c r="D143" s="8"/>
       <c r="E143" s="9"/>
       <c r="F143" s="9"/>
@@ -4908,7 +4918,7 @@
         <v>37.0</v>
       </c>
       <c r="C145" s="7" t="s">
-        <v>106</v>
+        <v>131</v>
       </c>
       <c r="D145" s="8"/>
       <c r="E145" s="9"/>
@@ -4935,7 +4945,9 @@
     <row r="146" ht="15.75" customHeight="1">
       <c r="A146" s="9"/>
       <c r="B146" s="10"/>
-      <c r="C146" s="7"/>
+      <c r="C146" s="7" t="s">
+        <v>132</v>
+      </c>
       <c r="D146" s="8"/>
       <c r="E146" s="9"/>
       <c r="F146" s="9"/>
@@ -4992,7 +5004,7 @@
         <v>38.0</v>
       </c>
       <c r="C148" s="7" t="s">
-        <v>107</v>
+        <v>133</v>
       </c>
       <c r="D148" s="8"/>
       <c r="E148" s="9"/>
@@ -5019,7 +5031,9 @@
     <row r="149" ht="15.75" customHeight="1">
       <c r="A149" s="9"/>
       <c r="B149" s="10"/>
-      <c r="C149" s="7"/>
+      <c r="C149" s="7" t="s">
+        <v>134</v>
+      </c>
       <c r="D149" s="8"/>
       <c r="E149" s="9"/>
       <c r="F149" s="9"/>
@@ -5076,10 +5090,10 @@
         <v>39.0</v>
       </c>
       <c r="C151" s="7" t="s">
-        <v>108</v>
+        <v>135</v>
       </c>
       <c r="D151" s="14" t="s">
-        <v>109</v>
+        <v>136</v>
       </c>
       <c r="E151" s="9"/>
       <c r="F151" s="9"/>
@@ -5106,10 +5120,10 @@
       <c r="A152" s="9"/>
       <c r="B152" s="10"/>
       <c r="C152" s="7" t="s">
-        <v>110</v>
+        <v>137</v>
       </c>
       <c r="D152" s="14" t="s">
-        <v>111</v>
+        <v>138</v>
       </c>
       <c r="E152" s="9"/>
       <c r="F152" s="9"/>
@@ -5137,7 +5151,7 @@
       <c r="B153" s="10"/>
       <c r="C153" s="11"/>
       <c r="D153" s="14" t="s">
-        <v>112</v>
+        <v>139</v>
       </c>
       <c r="E153" s="9"/>
       <c r="F153" s="9"/>
@@ -5194,10 +5208,10 @@
         <v>40.0</v>
       </c>
       <c r="C155" s="7" t="s">
-        <v>113</v>
+        <v>140</v>
       </c>
       <c r="D155" s="14" t="s">
-        <v>114</v>
+        <v>141</v>
       </c>
       <c r="E155" s="9"/>
       <c r="F155" s="9"/>
@@ -5223,9 +5237,11 @@
     <row r="156" ht="15.75" customHeight="1">
       <c r="A156" s="9"/>
       <c r="B156" s="10"/>
-      <c r="C156" s="7"/>
+      <c r="C156" s="7" t="s">
+        <v>126</v>
+      </c>
       <c r="D156" s="14" t="s">
-        <v>115</v>
+        <v>142</v>
       </c>
       <c r="E156" s="9"/>
       <c r="F156" s="9"/>
@@ -5253,7 +5269,7 @@
       <c r="B157" s="10"/>
       <c r="C157" s="11"/>
       <c r="D157" s="14" t="s">
-        <v>116</v>
+        <v>143</v>
       </c>
       <c r="E157" s="9"/>
       <c r="F157" s="9"/>
@@ -5281,7 +5297,7 @@
       <c r="B158" s="10"/>
       <c r="C158" s="11"/>
       <c r="D158" s="14" t="s">
-        <v>117</v>
+        <v>144</v>
       </c>
       <c r="E158" s="9"/>
       <c r="F158" s="9"/>
@@ -5309,7 +5325,7 @@
       <c r="B159" s="10"/>
       <c r="C159" s="11"/>
       <c r="D159" s="14" t="s">
-        <v>118</v>
+        <v>145</v>
       </c>
       <c r="E159" s="9"/>
       <c r="F159" s="9"/>
@@ -5366,10 +5382,10 @@
         <v>41.0</v>
       </c>
       <c r="C161" s="7" t="s">
-        <v>119</v>
+        <v>146</v>
       </c>
       <c r="D161" s="14" t="s">
-        <v>120</v>
+        <v>147</v>
       </c>
       <c r="E161" s="9"/>
       <c r="F161" s="9"/>
@@ -5396,10 +5412,10 @@
       <c r="A162" s="9"/>
       <c r="B162" s="10"/>
       <c r="C162" s="7" t="s">
-        <v>121</v>
+        <v>148</v>
       </c>
       <c r="D162" s="14" t="s">
-        <v>122</v>
+        <v>149</v>
       </c>
       <c r="E162" s="9"/>
       <c r="F162" s="9"/>
@@ -5425,7 +5441,9 @@
     <row r="163" ht="15.75" customHeight="1">
       <c r="A163" s="9"/>
       <c r="B163" s="10"/>
-      <c r="C163" s="7"/>
+      <c r="C163" s="7" t="s">
+        <v>150</v>
+      </c>
       <c r="D163" s="8"/>
       <c r="E163" s="9"/>
       <c r="F163" s="9"/>
@@ -5482,7 +5500,7 @@
         <v>42.0</v>
       </c>
       <c r="C165" s="7" t="s">
-        <v>123</v>
+        <v>151</v>
       </c>
       <c r="D165" s="8"/>
       <c r="E165" s="9"/>
@@ -5510,7 +5528,7 @@
       <c r="A166" s="9"/>
       <c r="B166" s="10"/>
       <c r="C166" s="7" t="s">
-        <v>124</v>
+        <v>152</v>
       </c>
       <c r="D166" s="8"/>
       <c r="E166" s="9"/>
@@ -5568,7 +5586,7 @@
         <v>43.0</v>
       </c>
       <c r="C168" s="7" t="s">
-        <v>125</v>
+        <v>153</v>
       </c>
       <c r="D168" s="8"/>
       <c r="E168" s="9"/>
@@ -5596,7 +5614,7 @@
       <c r="A169" s="9"/>
       <c r="B169" s="10"/>
       <c r="C169" s="7" t="s">
-        <v>126</v>
+        <v>154</v>
       </c>
       <c r="D169" s="8"/>
       <c r="E169" s="9"/>
@@ -5654,10 +5672,10 @@
         <v>44.0</v>
       </c>
       <c r="C171" s="7" t="s">
-        <v>127</v>
+        <v>155</v>
       </c>
       <c r="D171" s="14" t="s">
-        <v>128</v>
+        <v>156</v>
       </c>
       <c r="E171" s="9"/>
       <c r="F171" s="9"/>
@@ -5684,10 +5702,10 @@
       <c r="A172" s="9"/>
       <c r="B172" s="10"/>
       <c r="C172" s="7" t="s">
-        <v>129</v>
+        <v>157</v>
       </c>
       <c r="D172" s="14" t="s">
-        <v>130</v>
+        <v>158</v>
       </c>
       <c r="E172" s="9"/>
       <c r="F172" s="9"/>
@@ -5744,7 +5762,7 @@
         <v>45.0</v>
       </c>
       <c r="C174" s="7" t="s">
-        <v>131</v>
+        <v>159</v>
       </c>
       <c r="D174" s="8"/>
       <c r="E174" s="9"/>
@@ -5802,7 +5820,7 @@
         <v>46.0</v>
       </c>
       <c r="C176" s="7" t="s">
-        <v>132</v>
+        <v>160</v>
       </c>
       <c r="D176" s="8"/>
       <c r="E176" s="9"/>
@@ -5860,7 +5878,7 @@
         <v>47.0</v>
       </c>
       <c r="C178" s="7" t="s">
-        <v>133</v>
+        <v>161</v>
       </c>
       <c r="D178" s="8"/>
       <c r="E178" s="9"/>
@@ -5918,7 +5936,7 @@
         <v>48.0</v>
       </c>
       <c r="C180" s="7" t="s">
-        <v>134</v>
+        <v>162</v>
       </c>
       <c r="D180" s="8"/>
       <c r="E180" s="9"/>
@@ -5976,7 +5994,7 @@
         <v>49.0</v>
       </c>
       <c r="C182" s="7" t="s">
-        <v>135</v>
+        <v>163</v>
       </c>
       <c r="D182" s="8"/>
       <c r="E182" s="9"/>
@@ -6034,10 +6052,10 @@
         <v>50.0</v>
       </c>
       <c r="C184" s="7" t="s">
-        <v>136</v>
+        <v>164</v>
       </c>
       <c r="D184" s="14" t="s">
-        <v>137</v>
+        <v>165</v>
       </c>
       <c r="E184" s="9"/>
       <c r="F184" s="9"/>
@@ -6094,10 +6112,10 @@
         <v>51.0</v>
       </c>
       <c r="C186" s="7" t="s">
-        <v>138</v>
+        <v>166</v>
       </c>
       <c r="D186" s="14" t="s">
-        <v>139</v>
+        <v>167</v>
       </c>
       <c r="E186" s="9"/>
       <c r="F186" s="9"/>
@@ -6124,10 +6142,10 @@
       <c r="A187" s="9"/>
       <c r="B187" s="10"/>
       <c r="C187" s="7" t="s">
-        <v>140</v>
+        <v>168</v>
       </c>
       <c r="D187" s="14" t="s">
-        <v>141</v>
+        <v>169</v>
       </c>
       <c r="E187" s="9"/>
       <c r="F187" s="9"/>
@@ -6184,10 +6202,10 @@
         <v>52.0</v>
       </c>
       <c r="C189" s="7" t="s">
-        <v>142</v>
+        <v>170</v>
       </c>
       <c r="D189" s="14" t="s">
-        <v>143</v>
+        <v>171</v>
       </c>
       <c r="E189" s="9"/>
       <c r="F189" s="9"/>
@@ -6244,10 +6262,10 @@
         <v>53.0</v>
       </c>
       <c r="C191" s="7" t="s">
-        <v>144</v>
+        <v>172</v>
       </c>
       <c r="D191" s="14" t="s">
-        <v>145</v>
+        <v>173</v>
       </c>
       <c r="E191" s="9"/>
       <c r="F191" s="9"/>
@@ -6274,10 +6292,10 @@
       <c r="A192" s="9"/>
       <c r="B192" s="10"/>
       <c r="C192" s="7" t="s">
-        <v>146</v>
+        <v>174</v>
       </c>
       <c r="D192" s="14" t="s">
-        <v>147</v>
+        <v>175</v>
       </c>
       <c r="E192" s="9"/>
       <c r="F192" s="9"/>
@@ -6334,10 +6352,10 @@
         <v>54.0</v>
       </c>
       <c r="C194" s="7" t="s">
-        <v>148</v>
+        <v>176</v>
       </c>
       <c r="D194" s="14" t="s">
-        <v>149</v>
+        <v>177</v>
       </c>
       <c r="E194" s="9"/>
       <c r="F194" s="9"/>
@@ -6364,7 +6382,7 @@
       <c r="A195" s="9"/>
       <c r="B195" s="10"/>
       <c r="C195" s="7" t="s">
-        <v>150</v>
+        <v>178</v>
       </c>
       <c r="D195" s="8"/>
       <c r="E195" s="9"/>
@@ -6422,7 +6440,7 @@
         <v>55.0</v>
       </c>
       <c r="C197" s="7" t="s">
-        <v>151</v>
+        <v>179</v>
       </c>
       <c r="D197" s="8"/>
       <c r="E197" s="9"/>
@@ -6450,7 +6468,7 @@
       <c r="A198" s="9"/>
       <c r="B198" s="10"/>
       <c r="C198" s="7" t="s">
-        <v>152</v>
+        <v>180</v>
       </c>
       <c r="D198" s="8"/>
       <c r="E198" s="9"/>
@@ -7882,9 +7900,6 @@
     <hyperlink r:id="rId47" ref="D192"/>
     <hyperlink r:id="rId48" ref="D194"/>
   </hyperlinks>
-  <printOptions gridLines="1" horizontalCentered="1"/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup fitToHeight="0" cellComments="atEnd" orientation="landscape" pageOrder="overThenDown"/>
   <drawing r:id="rId49"/>
 </worksheet>
 </file>